--- a/BalanceSheet/CDNS_bal.xlsx
+++ b/BalanceSheet/CDNS_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-669000.0</v>
+        <v>77000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-32061000.0</v>
+        <v>76000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-4644000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>16280000.0</v>
+        <v>44000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-5260000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>55802000.0</v>
@@ -2093,19 +2093,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-80769000.0</v>
+        <v>268000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>48849000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-19314000.0</v>
+        <v>290000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>73698000.0</v>
+        <v>306000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-84839000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>316908000.0</v>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2710000.0</v>
+        <v>-729000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-7151000.0</v>
+        <v>-732000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-17357000.0</v>
+        <v>-723000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-5513000.0</v>
+        <v>-705000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3904000.0</v>
+        <v>-699000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>-732000000.0</v>
@@ -4697,7 +4697,7 @@
         <v>-250000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-248000000.0</v>
+        <v>-333191000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>-309383000.0</v>
@@ -4824,7 +4824,7 @@
         <v>696000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>457000000.0</v>
+        <v>372019000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>345833000.0</v>
